--- a/Documentation/接口交互文档版本记录/RF-S2P曲线页面交互.xlsx
+++ b/Documentation/接口交互文档版本记录/RF-S2P曲线页面交互.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,33 +124,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>json类型的true或false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义参数是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomParameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；
+customParameter：自定义参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型提示信息（若不存在在返回空字符串）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型的集合（status:结果状态；result：结果数值；customParameter：自定义参数；calculationFormula：公式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式有问题时，集合中只有status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打的marker是否存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarkerExsit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerName：marker名；
+sParameter：s参数；
+waferId：晶圆主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarkerOperate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>marker删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json类型的true或false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；
+classify：值为"add"；
+sParameter：s参数；
+markerName：marker名；
+xPoint：点X数据；yPoint：点Y数据；
+coordinateId：die主键；
+sParameter：s参数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时更新晶圆所有die的marker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只允许修改marker名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；
+oldMarkerName：旧marker名；
+markerName：修改的marker名；
+classify：值为"modify"；
+coordinateId：die主键；
+sParameter：s参数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classify：值为"remove"；
+waferId：晶圆主键；
+markerName：marker名；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>curveTypeId：数组，曲线主键；
+waferId：晶圆主键;
 sParameter：s参数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计算器:新建参数/公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算器：修改参数/公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculationFormula：计算公式；
+customParameter：自定义参数；
+coordinateId：坐标主键；
+waferId：晶圆主键；
+calculationFormula：用户输入的公式；
+formula：前端转的数字公式字符串；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coordinateId：坐标主键；
+waferId：晶圆主键；
+oldParameter：修改前的参数；
+customParameter：自定义参数；
+coordinateId：坐标主键；
+calculationFormula：用户输入的公式；
+formula：前端转的数字公式字符串；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalculationData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算区域：展示当前晶圆所有参数，结果，公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waferId：晶圆主键；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>json类型集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCF模型分析页面：marker、计算区域的存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marker：数组，每个数组元素为“marker名,x值,y值”（英文逗号分隔）；
-customParameter：数组，自定义参数；
-calculation：计算公式；
-calculationResult：计算结果；
-waferId：警员主键；
-sParameter：s参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json类型的true或false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,6 +436,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -305,12 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,15 +745,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="64.875" customWidth="1"/>
@@ -643,14 +782,14 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="27">
       <c r="A3" s="2" t="s">
@@ -712,13 +851,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="50.25" customHeight="1">
       <c r="A7" s="4" t="s">
@@ -731,54 +870,180 @@
         <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="121.5" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="141.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="141.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="99" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="110.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="111.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="43.5" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
